--- a/Chess Structure.xlsx
+++ b/Chess Structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liman\Documents\Java\Chess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1099F246-EB22-490C-AC74-72FFDAE7C4FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4CDB9F-564E-4386-AF39-C34C47D8D4C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31755" yWindow="420" windowWidth="38700" windowHeight="15435" xr2:uid="{871FADCB-A75D-464C-99B8-E74E64E3507D}"/>
+    <workbookView xWindow="-27660" yWindow="5550" windowWidth="38700" windowHeight="15435" xr2:uid="{871FADCB-A75D-464C-99B8-E74E64E3507D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>ChessGame</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Player</t>
   </si>
   <si>
-    <t>Pieces</t>
-  </si>
-  <si>
     <t>color</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>advantage</t>
   </si>
   <si>
-    <t>Moves</t>
-  </si>
-  <si>
     <t>promotion</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>available moves</t>
   </si>
   <si>
-    <t>point</t>
-  </si>
-  <si>
     <t>symbol</t>
   </si>
   <si>
@@ -121,13 +112,127 @@
   </si>
   <si>
     <t>notation or symbol</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>moves</t>
+  </si>
+  <si>
+    <t>legal?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>place move</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>retry legal moves</t>
+  </si>
+  <si>
+    <t>show available moves</t>
+  </si>
+  <si>
+    <t>(assistance mode)</t>
+  </si>
+  <si>
+    <t>start tile</t>
+  </si>
+  <si>
+    <t>end tile</t>
+  </si>
+  <si>
+    <t>see board</t>
+  </si>
+  <si>
+    <t>Board.toString</t>
+  </si>
+  <si>
+    <t>newGame</t>
+  </si>
+  <si>
+    <t>Players</t>
+  </si>
+  <si>
+    <t>see whose turn</t>
+  </si>
+  <si>
+    <t>true for now move</t>
+  </si>
+  <si>
+    <t>black/white</t>
+  </si>
+  <si>
+    <t>Computer Player</t>
+  </si>
+  <si>
+    <t>create game based on available game history</t>
+  </si>
+  <si>
+    <t>Piece</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>PieceTypes</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>BoardFactory</t>
+  </si>
+  <si>
+    <t>last move</t>
+  </si>
+  <si>
+    <t>Tile</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>enums</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>black/white castle side</t>
+  </si>
+  <si>
+    <t>move history []</t>
+  </si>
+  <si>
+    <t>good, excellent move, blunder, mistake</t>
+  </si>
+  <si>
+    <t>taken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,13 +240,67 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,17 +312,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="attribute" xfId="2" xr:uid="{6FEFF381-F98C-4BD1-B785-96838BCCC841}"/>
+    <cellStyle name="attribute (may)" xfId="3" xr:uid="{4A021FE6-703E-44A3-ABA6-D68748D56852}"/>
+    <cellStyle name="Class" xfId="1" xr:uid="{94C4F603-1F16-45FE-A8EE-B3FDDAB1ADE4}"/>
+    <cellStyle name="method" xfId="4" xr:uid="{07BC694A-E8F3-4287-83B4-1D2BBF969969}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF0F0FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -472,125 +649,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6C1C1F-4F33-4189-A56C-DC076FB96C79}">
-  <dimension ref="E4:N22"/>
+  <dimension ref="A4:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
       <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J8" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" t="s">
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="F23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="C31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="J11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="H12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="J22" t="s">
-        <v>13</v>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>